--- a/biology/Zoologie/Chaerilus_celebensis/Chaerilus_celebensis.xlsx
+++ b/biology/Zoologie/Chaerilus_celebensis/Chaerilus_celebensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaerilus celebensis est une espèce de scorpions de la famille des Chaerilidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Sulawesi en Indonésie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Sulawesi en Indonésie.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mesure 19 mm[2].
-Chaerilus celebensis mesure de 22,0 à 26,0 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mesure 19 mm.
+Chaerilus celebensis mesure de 22,0 à 26,0 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaerilus philippinus[3], Chaerilus spinatus[4] et Chaerilus thai[1] ont été placées en synonymie avec Chaerilus celebensis par Kovařík en 2013[5]. Cette synonymie a été refusée par Lourenço et Pham en 2014[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaerilus philippinus, Chaerilus spinatus et Chaerilus thai ont été placées en synonymie avec Chaerilus celebensis par Kovařík en 2013. Cette synonymie a été refusée par Lourenço et Pham en 2014.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de celeb[es] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Célèbes.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pocock, 1894 : Scorpions from the Malay Archipelago. Zoologisclte Ergebnisse einer Reise in Niederliindisch Ost-Indien, vol. 3, no 2, p. 84-99 (texte intégral).</t>
         </is>
